--- a/assets/2019-nCoV.xlsx
+++ b/assets/2019-nCoV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\wuhan\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B9E993-400E-4D09-8CE7-DDF4367AACAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9CFE5-0BD9-489E-9851-491C2100932C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60FECBA8-B909-48AE-AB33-2A8B397DD8FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
   <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,22 +163,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yunan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zhejiang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>illinoise-us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>washington-us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>japan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +480,146 @@
   </si>
   <si>
     <t>270-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68-0-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111-0-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-0-0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-0-0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1058-0-42-52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-72-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunnan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ontario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>california</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illinois</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,21 +993,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13ECD7B-6060-4255-BB02-FC76681ECC54}">
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="14" width="9" style="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="49" width="9" style="1"/>
+    <col min="16" max="50" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,63 +1105,69 @@
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>106</v>
+      <c r="AX1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43851</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1042,28 +1176,28 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
@@ -1072,22 +1206,22 @@
         <v>2</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AD2" s="1">
         <v>1</v>
@@ -1104,22 +1238,22 @@
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
-      <c r="AK2" s="1">
-        <v>1</v>
-      </c>
       <c r="AL2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43852.5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1">
         <v>14</v>
@@ -1131,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1146,13 +1280,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1">
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O3" s="1">
         <v>444</v>
@@ -1167,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U3" s="1">
         <v>2</v>
@@ -1182,13 +1316,13 @@
         <v>2</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AB3" s="1">
         <v>1</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD3" s="1">
         <v>1</v>
@@ -1205,22 +1339,22 @@
       <c r="AJ3" s="1">
         <v>1</v>
       </c>
-      <c r="AK3" s="1">
-        <v>2</v>
-      </c>
       <c r="AL3" s="1">
         <v>2</v>
       </c>
       <c r="AM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43853.5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1">
         <v>22</v>
@@ -1229,13 +1363,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -1244,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -1256,16 +1390,16 @@
         <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P4" s="1">
         <v>9</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1">
         <v>5</v>
@@ -1286,93 +1420,93 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AU4" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43854</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
@@ -1380,29 +1514,29 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
-        <v>11902</v>
+      <c r="J5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M5" s="1">
         <v>9</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P5" s="1">
         <v>24</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R5" s="1">
         <v>9</v>
@@ -1435,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="1">
         <v>1</v>
@@ -1450,176 +1584,176 @@
         <v>2</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AJ5" s="1">
         <v>1</v>
       </c>
-      <c r="AK5" s="1">
-        <v>2</v>
-      </c>
       <c r="AL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="1">
         <v>4</v>
       </c>
-      <c r="AM5" s="1">
-        <v>1</v>
-      </c>
       <c r="AN5" s="1">
         <v>1</v>
       </c>
       <c r="AO5" s="1">
         <v>1</v>
       </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43854.5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43855</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
         <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1">
         <v>23</v>
@@ -1631,19 +1765,19 @@
         <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P7" s="1">
         <v>43</v>
@@ -1652,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S7" s="1">
         <v>18</v>
@@ -1667,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="1">
         <v>5</v>
@@ -1679,13 +1813,13 @@
         <v>21</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB7" s="1">
         <v>6</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AD7" s="1">
         <v>3</v>
@@ -1700,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AI7" s="1">
         <v>1</v>
@@ -1708,55 +1842,55 @@
       <c r="AJ7" s="1">
         <v>1</v>
       </c>
-      <c r="AK7" s="1">
-        <v>2</v>
-      </c>
       <c r="AL7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="1">
         <v>5</v>
       </c>
-      <c r="AM7" s="1">
-        <v>2</v>
-      </c>
       <c r="AN7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="1">
         <v>3</v>
       </c>
-      <c r="AO7" s="1">
-        <v>2</v>
-      </c>
       <c r="AP7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>3</v>
       </c>
-      <c r="AQ7" s="1">
-        <v>1</v>
-      </c>
       <c r="AR7" s="1">
         <v>1</v>
       </c>
       <c r="AS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43855.5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1">
         <v>23</v>
@@ -1774,13 +1908,13 @@
         <v>9</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P8" s="1">
         <v>43</v>
@@ -1789,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S8" s="1">
         <v>18</v>
@@ -1804,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
@@ -1816,13 +1950,13 @@
         <v>27</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="1">
         <v>6</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AD8" s="1">
         <v>3</v>
@@ -1834,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AI8" s="1">
         <v>1</v>
@@ -1845,32 +1979,175 @@
       <c r="AJ8" s="1">
         <v>1</v>
       </c>
-      <c r="AK8" s="1">
-        <v>2</v>
-      </c>
       <c r="AL8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="1">
         <v>7</v>
       </c>
-      <c r="AM8" s="1">
-        <v>2</v>
-      </c>
       <c r="AN8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="1">
         <v>3</v>
       </c>
-      <c r="AO8" s="1">
-        <v>2</v>
-      </c>
       <c r="AP8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>3</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AR8" s="1">
         <v>4</v>
       </c>
-      <c r="AR8" s="1">
-        <v>1</v>
-      </c>
       <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43856.458333333336</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/2019-nCoV.xlsx
+++ b/assets/2019-nCoV.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\wuhan\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\virus\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9CFE5-0BD9-489E-9851-491C2100932C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60FECBA8-B909-48AE-AB33-2A8B397DD8FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="184">
   <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,27 +620,138 @@
   <si>
     <t>illinois</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>72-0-2</t>
+  </si>
+  <si>
+    <t>110-0-0-1</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>151-0-3</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>33-0-0-1</t>
+  </si>
+  <si>
+    <t>18-0-0-1</t>
+  </si>
+  <si>
+    <t>21-0-0-1</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1423-0-45-76</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>47-0-1</t>
+  </si>
+  <si>
+    <t>48-0-1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>53-0-3-1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>128-0-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4-0-1</t>
+  </si>
+  <si>
+    <t>8-0-2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>cambodia</t>
+  </si>
+  <si>
+    <t>arizona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -676,7 +786,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,22 +1102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13ECD7B-6060-4255-BB02-FC76681ECC54}">
-  <dimension ref="A1:AY9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
     <col min="2" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
-    <col min="16" max="50" width="9" style="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
+    <col min="16" max="34" width="9" style="1"/>
+    <col min="35" max="35" width="9.140625" style="1"/>
+    <col min="36" max="51" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,58 +1223,64 @@
         <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53">
       <c r="A2" s="2">
         <v>43851</v>
       </c>
@@ -1235,20 +1353,20 @@
       <c r="AH2" s="1">
         <v>5</v>
       </c>
-      <c r="AJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AK2" s="1">
         <v>1</v>
       </c>
       <c r="AM2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53">
       <c r="A3" s="2">
         <v>43852.5</v>
       </c>
@@ -1336,20 +1454,20 @@
       <c r="AH3" s="1">
         <v>10</v>
       </c>
-      <c r="AJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>2</v>
+      <c r="AK3" s="1">
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>2</v>
       </c>
       <c r="AN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53">
       <c r="A4" s="2">
         <v>43853.5</v>
       </c>
@@ -1449,35 +1567,32 @@
       <c r="AH4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AP4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>60</v>
@@ -1485,8 +1600,11 @@
       <c r="AX4" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AY4" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53">
       <c r="A5" s="2">
         <v>43854</v>
       </c>
@@ -1586,26 +1704,26 @@
       <c r="AH5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>2</v>
+      <c r="AK5" s="1">
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="1">
         <v>4</v>
       </c>
-      <c r="AN5" s="1">
-        <v>1</v>
-      </c>
       <c r="AO5" s="1">
         <v>1</v>
       </c>
       <c r="AP5" s="1">
         <v>1</v>
       </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>43854.5</v>
       </c>
@@ -1708,32 +1826,32 @@
       <c r="AH6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AJ6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="AR6" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53">
       <c r="A7" s="2">
         <v>43855</v>
       </c>
@@ -1836,41 +1954,41 @@
       <c r="AH7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI7" s="1">
-        <v>1</v>
-      </c>
       <c r="AJ7" s="1">
         <v>1</v>
       </c>
-      <c r="AL7" s="1">
-        <v>2</v>
+      <c r="AK7" s="1">
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="1">
         <v>5</v>
       </c>
-      <c r="AN7" s="1">
-        <v>2</v>
-      </c>
       <c r="AO7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="1">
         <v>3</v>
       </c>
-      <c r="AP7" s="1">
-        <v>2</v>
-      </c>
       <c r="AQ7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="1">
         <v>3</v>
       </c>
-      <c r="AR7" s="1">
-        <v>1</v>
-      </c>
       <c r="AS7" s="1">
         <v>1</v>
       </c>
       <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53">
       <c r="A8" s="2">
         <v>43855.5</v>
       </c>
@@ -1973,41 +2091,41 @@
       <c r="AH8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" s="1">
-        <v>1</v>
-      </c>
       <c r="AJ8" s="1">
         <v>1</v>
       </c>
-      <c r="AL8" s="1">
-        <v>2</v>
+      <c r="AK8" s="1">
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="1">
         <v>7</v>
       </c>
-      <c r="AN8" s="1">
-        <v>2</v>
-      </c>
       <c r="AO8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="1">
         <v>3</v>
       </c>
-      <c r="AP8" s="1">
-        <v>2</v>
-      </c>
       <c r="AQ8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="1">
         <v>3</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS8" s="1">
         <v>4</v>
       </c>
-      <c r="AS8" s="1">
-        <v>1</v>
-      </c>
       <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53">
       <c r="A9" s="2">
         <v>43856.458333333336</v>
       </c>
@@ -2110,9 +2228,6 @@
       <c r="AH9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AI9" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="AJ9" s="1" t="s">
         <v>122</v>
       </c>
@@ -2120,33 +2235,182 @@
         <v>122</v>
       </c>
       <c r="AL9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA10">
         <v>1</v>
       </c>
     </row>
